--- a/gd/手游系统规划/“妲己”项目版本计划.xlsx
+++ b/gd/手游系统规划/“妲己”项目版本计划.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="13005"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="工作内容规划" sheetId="1" r:id="rId1"/>
+    <sheet name="产出投放规划" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="271">
   <si>
     <t>核心部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -729,55 +729,193 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>狩猎场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索性玩法，单机，产出稀有宠物稀有材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff or debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队长+友情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极少量需求比如盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10(勤奋5+倾向5）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待设计第一期不强需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+  </si>
+  <si>
+    <t>音量，音效及画质调节</t>
+  </si>
+  <si>
+    <t>支付功能</t>
+  </si>
+  <si>
+    <t>渠道sdk+ios</t>
+  </si>
+  <si>
+    <t>运营工具</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息界面（及宠物UI）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录流程（及账号创建）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2级坑，延长游戏寿命。15星，1~5星：固定道具；6~10星：固定道具+同种怪物；11~15星：固定道具+同星同种怪物，怪物成长系数加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>改变成长数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变换怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmb代币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物魂魄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">疲劳药水 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>狩猎场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>探索性玩法，单机，产出稀有宠物稀有材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff or debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能</t>
+    <t>擂台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步交互玩法，占领擂台越长时间，收益越高，产出专有货币，可以换专有宠物魂魄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种菜玩法，但是时间在30分钟~2小时为主，少量10小时及以上任务，类似wow的要塞任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地藏宫殿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家装备符文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备宝石</t>
+  </si>
+  <si>
+    <t>宠物装备宝石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -785,58 +923,305 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>队长+友情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极少量需求比如盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10(勤奋5+倾向5）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CP技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待设计第一期不强需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置</t>
-  </si>
-  <si>
-    <t>音量，音效及画质调节</t>
-  </si>
-  <si>
-    <t>支付功能</t>
-  </si>
-  <si>
-    <t>渠道sdk+ios</t>
-  </si>
-  <si>
-    <t>运营工具</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息界面（及宠物UI）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录流程（及账号创建）</t>
+    <t>☆☆☆</t>
+  </si>
+  <si>
+    <t>☆☆☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆☆☆☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆</t>
+  </si>
+  <si>
+    <t>☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆☆☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整只宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降临boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次投放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次副本3星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期投放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费~小R追求指引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中R~大R追求指引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费~小R：挑战型奖励
+中R~大R额外奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物升星材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备洗炼材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础追求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物种类横向追求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物纵向追求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色横向追求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能为主金钱回收口，其他所有系统均需要金钱回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备强化</t>
+  </si>
+  <si>
+    <t>宠物装备进阶</t>
+  </si>
+  <si>
+    <t>宠物装备洗炼</t>
+  </si>
+  <si>
+    <t>玩家装备技能及属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有宠物合成材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备强化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备进阶材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出rmb代币，宠物魂魄，金钱，疲劳药，装备强化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动指引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期（1周）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中期（2月）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期（25年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出投放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法轻重程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆☆☆☆</t>
+  </si>
+  <si>
+    <t>☆☆☆☆☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆☆☆☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆☆☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆</t>
+  </si>
+  <si>
+    <t>☆☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>注释：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻重程度是玩家操作程度和玩法时长的综合维度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>注释：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星星数量表示在投放中的权重</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星越大表示越重度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -844,7 +1229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -890,6 +1275,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -905,7 +1306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -913,13 +1314,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,29 +1479,122 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1249,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:L29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1258,7 +1901,7 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1301,7 +1944,7 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1312,16 +1955,16 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>153</v>
+      <c r="B3" s="25"/>
+      <c r="C3" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1332,7 +1975,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="3"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
@@ -1341,16 +1984,16 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>154</v>
+      <c r="B6" s="25"/>
+      <c r="C6" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="3"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
@@ -1437,8 +2080,8 @@
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="10" t="s">
-        <v>177</v>
+      <c r="B18" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -1448,10 +2091,10 @@
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="1" t="s">
@@ -1462,15 +2105,15 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="10" t="s">
-        <v>178</v>
+      <c r="B21" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="1" t="s">
@@ -1479,9 +2122,9 @@
       <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="1" t="s">
@@ -1493,9 +2136,9 @@
       <c r="E23" s="1">
         <v>3</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="1" t="s">
@@ -1517,7 +2160,7 @@
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1581,59 +2224,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="8" customFormat="1">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10">
+    <row r="33" spans="1:7" s="7" customFormat="1">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="8" customFormat="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10" t="s">
+    <row r="34" spans="1:7" s="7" customFormat="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="7" customFormat="1">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="10">
+      <c r="C35" s="5"/>
+      <c r="D35" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="8" customFormat="1">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="10" t="s">
+    <row r="36" spans="1:7">
+      <c r="B36" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E35" s="10">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="B36" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="8" customFormat="1">
-      <c r="A37" s="9"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:5">
+    <row r="37" spans="1:7" s="7" customFormat="1">
+      <c r="A37" s="8"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -1644,29 +2287,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:7">
       <c r="B39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>150</v>
+      <c r="D39" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="B40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="B41" s="1" t="s">
         <v>29</v>
       </c>
@@ -1677,7 +2326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:7">
       <c r="B42" s="1" t="s">
         <v>133</v>
       </c>
@@ -1688,7 +2337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:7">
       <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
@@ -1699,7 +2348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:7">
       <c r="B44" s="1" t="s">
         <v>33</v>
       </c>
@@ -1710,7 +2359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:7">
       <c r="B45" s="1" t="s">
         <v>71</v>
       </c>
@@ -1721,7 +2370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:7">
       <c r="B46" s="1" t="s">
         <v>34</v>
       </c>
@@ -1732,7 +2381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:7">
       <c r="B47" s="1" t="s">
         <v>68</v>
       </c>
@@ -1743,7 +2392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:7">
       <c r="B48" s="1" t="s">
         <v>42</v>
       </c>
@@ -1836,10 +2485,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="B57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="E57" s="1">
         <v>3</v>
@@ -1956,118 +2605,118 @@
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="3">
+        <v>6</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D69" s="4">
-        <v>6</v>
-      </c>
-      <c r="J69" s="1" t="s">
+      <c r="D70" s="3">
+        <v>15</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" s="3">
+        <v>14</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" s="3">
+        <v>23</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" s="3">
+        <v>16</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D75" s="3">
+        <v>30</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D70" s="4">
-        <v>15</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D71" s="4">
-        <v>14</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D72" s="4">
-        <v>23</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73" s="4">
-        <v>2</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D74" s="4">
-        <v>16</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D75" s="4">
-        <v>30</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4" t="s">
+      <c r="D76" s="3">
+        <v>36</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D76" s="4">
-        <v>36</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4" t="s">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="B78" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2106,7 +2755,7 @@
       <c r="D82" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2117,7 +2766,7 @@
       <c r="D83" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2219,7 +2868,7 @@
       <c r="D92" s="1">
         <v>3</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2244,7 +2893,7 @@
       <c r="D94" s="1">
         <v>1</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2258,7 +2907,7 @@
       <c r="D95" s="1">
         <v>1</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2291,7 +2940,7 @@
       <c r="D98" s="1">
         <v>1</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2396,14 +3045,978 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="4" width="13" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13" style="33" customWidth="1"/>
+    <col min="6" max="6" width="9" style="11"/>
+    <col min="7" max="8" width="9" style="7"/>
+    <col min="9" max="9" width="9" style="11"/>
+    <col min="10" max="10" width="9" style="7"/>
+    <col min="11" max="11" width="16.875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.25" style="11" customWidth="1"/>
+    <col min="13" max="13" width="16.25" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9" style="11"/>
+    <col min="15" max="16" width="16.25" style="7" customWidth="1"/>
+    <col min="17" max="17" width="13.25" style="7" customWidth="1"/>
+    <col min="18" max="18" width="17.75" style="7" customWidth="1"/>
+    <col min="19" max="19" width="9" style="11"/>
+    <col min="20" max="20" width="18.5" style="7" customWidth="1"/>
+    <col min="21" max="21" width="9" style="11"/>
+    <col min="22" max="22" width="9" style="7"/>
+    <col min="23" max="23" width="9" style="11"/>
+    <col min="24" max="24" width="19.625" style="7" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="B1" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="29"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="B2" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="E3" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" s="27"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="T3" s="28"/>
+      <c r="U3" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="V3" s="27"/>
+    </row>
+    <row r="4" spans="1:24" s="17" customFormat="1" ht="15">
+      <c r="B4" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="T4" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="U4" s="18"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="18"/>
+    </row>
+    <row r="5" spans="1:24" s="8" customFormat="1" ht="15">
+      <c r="B5" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="W5" s="12"/>
+    </row>
+    <row r="6" spans="1:24" s="22" customFormat="1">
+      <c r="A6" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="N6" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="S6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="W6" s="21"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="9" customFormat="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="E28" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="E30" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="E31" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="S31" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="X31" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="49.5">
+      <c r="E32" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="V32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="X32" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E2:V2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:R3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
